--- a/versionesHU/Historias de Usuario.xlsx
+++ b/versionesHU/Historias de Usuario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="156">
   <si>
     <t>Identificador (ID) de la historia</t>
   </si>
@@ -34,25 +34,25 @@
     <t>Como un cliente</t>
   </si>
   <si>
-    <t>Necesito agendar una cita para recibir una atención personalizada, en dado caso de un imprevisto, deseo poder aplazar la cita o en caso de no necesitarla, poder cancelarla.</t>
-  </si>
-  <si>
-    <t>Con la finalidad de realizar una gestión adecuada de una cita de asesoría.</t>
+    <t>Quiero gestionar el agendamiento de citas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de determinar un espacio óptimo para recibir una atención personalizada.</t>
   </si>
   <si>
     <t>EP-002</t>
   </si>
   <si>
-    <t xml:space="preserve">Deseo hacer una cotización de un modelo en el que este interesado, en caso de que quiera editar una cotización, lo pueda hacer, teniendo un registro de mis cotizaciones previas y poder compararlas entre sí </t>
-  </si>
-  <si>
-    <t>Con la finalidad de poder decidir entre la mejor opción para comprar.</t>
+    <t>Quiero gestionar las cotizaciones de modelos.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de poder decidirme entre la mejor opción para comprar.</t>
   </si>
   <si>
     <t>EP-003</t>
   </si>
   <si>
-    <t>Deseo que cuando ingrese al sitio pueda ver la disponibilidad de  modelos que deseo y en caso de no estar poder notificarme cuando si lo esté.</t>
+    <t>Quiero gestionar la disponibilidad de los modelos.</t>
   </si>
   <si>
     <t>Con la finalidad de saber si puedo comprar el modelo  en ese momento o cuando lo puedo hacer.</t>
@@ -85,40 +85,92 @@
     <t>Agendar una cita</t>
   </si>
   <si>
-    <t>Para poder programar una cita</t>
-  </si>
-  <si>
-    <t>Cita registrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de que se llene debidamente el formulario </t>
-  </si>
-  <si>
-    <t>Cuando se envié la solicitud de la cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema muestra un mensaje en pantalla, notificando que la cita ha sido registrada adecuadamente, mostrando los detalles de la fecha y hora. </t>
+    <t>Para poder comunicarme presencialmente con un asesor</t>
+  </si>
+  <si>
+    <t>Cita registrada exitosamente.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente llene correctamente el formulario de solicitud de cita.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente envíe la solicitud de cita a través del sistema.</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje en pantalla notificando que la cita ha sido registrada adecuadamente, incluyendo los detalles de la fecha y hora.</t>
+  </si>
+  <si>
+    <t>Cita no registrada por datos incompletos.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente intente agendar una cita pero deje campos obligatorios vacíos en el formulario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el cliente presione el botón para enviar la solicitud de cita.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema muestra un mensaje de error indicando los campos faltantes y no permite el envío hasta que se completen correctamente.
+</t>
+  </si>
+  <si>
+    <t>Horario solicitado no disponible.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente seleccione un día y hora para la cita, pero ese horario ya esté ocupado.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente intenta confirmar la cita con un horario no disponible.</t>
+  </si>
+  <si>
+    <t>El sistema notifica que el horario seleccionado no está disponible y ofrece opciones de fechas y horas alternativas.</t>
   </si>
   <si>
     <t>EP-001-02</t>
   </si>
   <si>
-    <t>Asignar una cita</t>
+    <t>Aplazar una cita</t>
   </si>
   <si>
     <t>Para poder reprogramar mi cita en caso de imprevistos</t>
   </si>
   <si>
-    <t>Cita reprogramada</t>
-  </si>
-  <si>
-    <t>En caso de que el cliente necesite cambiar la fecha o la hora de su cita</t>
-  </si>
-  <si>
-    <t>Cuando se solicita el cambio de fecha y hora a través del sistema</t>
-  </si>
-  <si>
-    <t>El sistema muestra un mensaje en pantalla confirmando la reprogramación, con los nuevos detalles de la cita.</t>
+    <t>Cita reprogramada exitosamente.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente necesite cambiar la fecha y/o hora de su cita.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente solicita la reprogramación a través del sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema muestra un mensaje confirmando la reprogramación y mostrando los nuevos detalles de la cita.
+</t>
+  </si>
+  <si>
+    <t>Reprogramación no permitida por límite de tiempo.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente intente reprogramar la cita, pero lo hace con muy poca antelación (menos de dos horas antes de la cita).</t>
+  </si>
+  <si>
+    <t>Cuando el cliente ingresa al sistema para cambiar la fecha y hora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema muestra un mensaje informando que la reprogramación ya no es posible debido al poco tiempo restante y sugiere contactar al soporte.
+</t>
+  </si>
+  <si>
+    <t>Nueva fecha elegida no disponible.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente solicite cambiar la cita para una nueva fecha y hora específicas, pero el horario ya este ocupado.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente confirma la reprogramación con un horario ya ocupado.</t>
+  </si>
+  <si>
+    <t>El sistema informa que la nueva fecha seleccionada no está disponible y sugiere otros horarios disponibles.</t>
   </si>
   <si>
     <t>EP-001-03</t>
@@ -127,19 +179,43 @@
     <t>Cancelar una cita</t>
   </si>
   <si>
-    <t>Para poder eliminar mi cita si ya no la necesito</t>
-  </si>
-  <si>
-    <t>Cita cancelada</t>
-  </si>
-  <si>
-    <t>En caso de que el cliente ya no pueda asistir a la cita programada</t>
-  </si>
-  <si>
-    <t>Cuando se solicita la cancelación a través del sistema</t>
-  </si>
-  <si>
-    <t>El sistema muestra un mensaje en pantalla confirmando que la cita ha sido cancelada exitosamente.</t>
+    <t xml:space="preserve">Para poder dejar el espacio disponible </t>
+  </si>
+  <si>
+    <t>Cita cancelada con anticipacion.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente no pueda asistir a la cita, podrá cancelar su cita hasta dos horas antes de la hora programada.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente seleccione la opción de cancelación.</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje confirmando que la cita ha sido cancelada exitosamente.</t>
+  </si>
+  <si>
+    <t>Cita cancelada sin anticpacion.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente quiera cancelar la cita, faltando menos de dos horas para la cita programada.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente ingrese a la sección de cancelación.</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje, donde informará que ya no puede cancelar su cita y deberá comunicarse por llamada con un asesor.</t>
+  </si>
+  <si>
+    <t>Cita cancelada por el concesionario.</t>
+  </si>
+  <si>
+    <t>En caso de que el concesionario no pueda atender las citas agendadas.</t>
+  </si>
+  <si>
+    <t>Cuando el concesionario por algún motivo no pueda atender.</t>
+  </si>
+  <si>
+    <t>El sistema enviará una notificación al cliente informando los motivos de la cancelación y se le ofrecerá una reprogramación según la disponiblidad del cliente.</t>
   </si>
   <si>
     <t>EP-002-01</t>
@@ -151,7 +227,7 @@
     <t>Para obtener información detallada sobre el precio y opciones del modelo de interés</t>
   </si>
   <si>
-    <t>Cotización registrada</t>
+    <t>Cotización registrada exitosamente</t>
   </si>
   <si>
     <t>En caso de que el cliente seleccione un modelo y complete los datos necesarios</t>
@@ -163,6 +239,30 @@
     <t>El sistema muestra un mensaje confirmando el registro y permite visualizar los detalles de la cotización.</t>
   </si>
   <si>
+    <t>Cotización con datos incompletos</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente no complete los datos necesarios</t>
+  </si>
+  <si>
+    <t>Cuando se envía la solicitud con información faltante</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje indicando que los campos obligatorios deben completarse para poder continuar.</t>
+  </si>
+  <si>
+    <t>Cotización sin guardar</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente registre una cotización, pero no finaliza el proceso por completo</t>
+  </si>
+  <si>
+    <t>Cuando el cliente sale de la sección de cotización antes de completar la solicitud</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje indicando si desea guardar o descartar la cotización.</t>
+  </si>
+  <si>
     <t>EP-002-02</t>
   </si>
   <si>
@@ -172,16 +272,40 @@
     <t>Para modificar opciones o ajustar la cotización según mis necesidades</t>
   </si>
   <si>
-    <t>Cotización editada</t>
-  </si>
-  <si>
-    <t>En caso de que el cliente tenga una cotización guardada y quiera modificarla</t>
-  </si>
-  <si>
-    <t>Cuando se selecciona la opción de editar en una cotización guardada</t>
-  </si>
-  <si>
-    <t>El sistema permite realizar cambios y muestra una confirmación de actualización exitosa.</t>
+    <t>Cotización editada exitosamente.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente tenga una cotización guardada y desee modificarla.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente selecciona la opción de editar en una cotización guardada y realiza cambios.</t>
+  </si>
+  <si>
+    <t>El sistema permite realizar modificaciones y muestra un mensaje confirmando que la actualización fue exitosa.</t>
+  </si>
+  <si>
+    <t>Edición no permitida por tiempo expirado</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente intente editar una cotización, pero el período permitido para modificaciones haya expirado.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente selecciona la opción de editar en una cotización guardada.</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje indicando que la cotización no puede ser editada porque ha vencido el tiempo de modificación y sugiere generar una nueva.</t>
+  </si>
+  <si>
+    <t>Error en la actualización por datos inválidos.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente intente modificar la cotización, pero introduce datos incorrectos o incompletos.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente guarda los cambios en la cotización con información no válida.</t>
+  </si>
+  <si>
+    <t>El sistema notifica al cliente sobre los errores en los datos ingresados y no permite guardar los cambios hasta que se corrijan.</t>
   </si>
   <si>
     <t>EP-002-03</t>
@@ -205,6 +329,30 @@
     <t>El sistema muestra una tabla comparativa con precios, características y diferencias entre las cotizaciones seleccionadas.</t>
   </si>
   <si>
+    <t>Comparación por diferentes criterios</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente desee por ordenar por precio, fecha, marca, entre otros</t>
+  </si>
+  <si>
+    <t>Cuando el cliente seleccione diferentes criterios para ordenar la comparación</t>
+  </si>
+  <si>
+    <t>El sistema organiza la tabla comparativa según el criterio elegido.</t>
+  </si>
+  <si>
+    <t>Límite de cotizaciones excedido</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente quiera comparar más de 5 cotizaciones al mismo tiempo</t>
+  </si>
+  <si>
+    <t>Cuando el cliente seleccione 6 o más cotizaciones para comparar</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje indicando que solo se pueden comparar 5 cotizaciones a las vez.</t>
+  </si>
+  <si>
     <t>EP-002-04</t>
   </si>
   <si>
@@ -214,10 +362,10 @@
     <t>Para revisar detalles de una cotización sin necesidad de generar una nueva</t>
   </si>
   <si>
-    <t>Cotización consultada</t>
-  </si>
-  <si>
-    <t>En caso de que el cliente desee acceder a una cotización previa</t>
+    <t>Cotización existente</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente desee revisar una cotización generada previamente</t>
   </si>
   <si>
     <t>Cuando el cliente ingresa al historial de cotizaciones y selecciona una</t>
@@ -226,6 +374,30 @@
     <t>El sistema muestra los detalles completos de la cotización seleccionada.</t>
   </si>
   <si>
+    <t>Cotización inexistente</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente seleccione una cotización que ha sido eliminada</t>
+  </si>
+  <si>
+    <t>Cuando el cliente intente visualizar los detalles de la cotización</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje indicando que la cotización ya no se encuentra disponible.</t>
+  </si>
+  <si>
+    <t>Cotización expirada</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente seleccione una cotización ha superado su periodo de validez</t>
+  </si>
+  <si>
+    <t>Cuando el cliente seleccione una cotización para revisarla</t>
+  </si>
+  <si>
+    <t>El sistema informa que la cotización expiró y sugiere generar una nueva.</t>
+  </si>
+  <si>
     <t>EP-003-01</t>
   </si>
   <si>
@@ -235,16 +407,40 @@
     <t>Para saber si puedo comprar el modelo en ese momento</t>
   </si>
   <si>
-    <t>Modelo disponible consultado</t>
-  </si>
-  <si>
-    <t>En caso de que el cliente busque un modelo en el sistema</t>
-  </si>
-  <si>
-    <t>Cuando el cliente ingresa a la sección de disponibilidad y selecciona un modelo</t>
-  </si>
-  <si>
-    <t>El sistema muestra si el modelo está disponible y, en caso afirmativo, se puede dirigir a la tienda física.</t>
+    <t>Modelo disponible con variantes de color o configuración.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente este interesado en un modelo específico y quiera saber si está en stock.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente usa el buscador del sistema e ingresa los detalles del modelo seleccionado.</t>
+  </si>
+  <si>
+    <t>El sistema muestra que el modelo está disponible y ofrece variantes de color o configuración, permitiendo al cliente elegir una opción.</t>
+  </si>
+  <si>
+    <t>Modelo no disponible con opciones de modelos similares.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente quiera adquirir un modelo específico, pero revisa su disponibilidad y no está en stock.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente filtra los resultados, pero el modelo deseado no aparece como disponible.</t>
+  </si>
+  <si>
+    <t>El sistema informa que el modelo no está disponible, pero sugiere modelos similares en stock con características parecidas.</t>
+  </si>
+  <si>
+    <t>Última unidad disponible, pero otro cliente la compra primero.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente revise la disponibilidad de un modelo y encuentre que queda una última unidad en stock.</t>
+  </si>
+  <si>
+    <t>Cuando intenta hacer una reserva en línea, otro cliente completa la compra antes.</t>
+  </si>
+  <si>
+    <t>El sistema actualiza la disponibilidad y muestra un mensaje indicando que el modelo ya no está disponible, evitando una compra duplicada.</t>
   </si>
   <si>
     <t>EP-003-02</t>
@@ -256,23 +452,48 @@
     <t>Para ser informado cuando pueda comprar el vehículo de interés</t>
   </si>
   <si>
-    <t>Notificación de disponibilidad enviada</t>
-  </si>
-  <si>
-    <t>En caso de que el modelo no esté disponible en ese momento</t>
-  </si>
-  <si>
-    <t>Cuando el cliente activa la opción de recibir notificación</t>
-  </si>
-  <si>
-    <t>El sistema registra la solicitud y envía una alerta cuando el modelo esté disponible, por correo o mensaje.</t>
+    <t>Solicitud de notificación exitosa.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente busque un modelo en el sistema y descubra que no está disponible.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente activa la opción de recibir una notificación cuando el modelo esté disponible.</t>
+  </si>
+  <si>
+    <t>El sistema confirma la solicitud y envía una alerta por correo o mensaje cuando el modelo esté nuevamente en stock.</t>
+  </si>
+  <si>
+    <t>Notificación recibida, pero cliente no responde.</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente haya solicitado una notificación y reciba una alerta de que el modelo ya está disponible.</t>
+  </si>
+  <si>
+    <t>Cuando el cliente no responda a la notificación dentro de un tiempo determinado.</t>
+  </si>
+  <si>
+    <t>El sistema reenvía un recordatorio o permite reservar temporalmente el modelo antes de que se agote nuevamente.</t>
+  </si>
+  <si>
+    <t>Notificación recibida y modelo agotado antes de la compra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de que el cliente reciba la notificación de disponibilidad y decida consultar el modelo en el sistema, pero ya se agotó el stock disponible.
+</t>
+  </si>
+  <si>
+    <t>Cuando el cliente ingrese a la sección de disponibilidad, y descubra que el modelo ya se agotó antes de que pudiera hacer la compra.</t>
+  </si>
+  <si>
+    <t>El sistema informa que el modelo ya no está disponible y ofrece la opción de recibir otra notificación en caso de reposición futura.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -300,8 +521,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +544,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF1F497D"/>
         <bgColor rgb="FF1F497D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
     <fill>
@@ -393,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -409,23 +647,47 @@
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,8 +1060,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="4" max="4" width="16.14"/>
     <col customWidth="1" min="6" max="6" width="17.43"/>
-    <col customWidth="1" min="9" max="9" width="21.57"/>
+    <col customWidth="1" min="7" max="7" width="19.71"/>
+    <col customWidth="1" min="8" max="8" width="19.29"/>
+    <col customWidth="1" min="9" max="9" width="23.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -847,111 +1112,251 @@
       <c r="E2" s="8">
         <v>1.0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="17">
         <v>1.0</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="F6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" ht="88.5" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="17">
         <v>1.0</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="F10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="99.75" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" ht="111.0" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -967,7 +1372,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="18.14"/>
-    <col customWidth="1" min="9" max="9" width="17.57"/>
+    <col customWidth="1" min="7" max="7" width="20.86"/>
+    <col customWidth="1" min="8" max="8" width="20.57"/>
+    <col customWidth="1" min="9" max="9" width="22.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -999,167 +1406,353 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" ht="100.5" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="C2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="17">
         <v>1.0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="F2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="105.0" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="74.25" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="17">
         <v>1.0</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="F6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" ht="114.75" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="17">
         <v>1.0</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="F10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" ht="100.5" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" ht="99.0" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" ht="86.25" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C14" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="17">
         <v>1.0</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="F14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" ht="87.0" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" ht="102.75" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1175,8 +1768,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="15.29"/>
-    <col customWidth="1" min="8" max="8" width="16.43"/>
-    <col customWidth="1" min="9" max="9" width="20.29"/>
+    <col customWidth="1" min="7" max="7" width="19.14"/>
+    <col customWidth="1" min="8" max="8" width="19.43"/>
+    <col customWidth="1" min="9" max="9" width="26.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1209,86 +1803,180 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="C2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="17">
         <v>1.0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>76</v>
+      <c r="F2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="17">
         <v>1.0</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="F6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>